--- a/experiment/quadratic/ex9.2.4/Experimentos_Generador/ex9.2.4(Quadratic)__C_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/quadratic/ex9.2.4/Experimentos_Generador/ex9.2.4(Quadratic)__C_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,52 +66,58 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-x + 0.9996239290263298y_1 - 0.0003757883274257967y_2</t>
-  </si>
-  <si>
-    <t>-1.8842448267323193</t>
+    <t>5.185921956581478 - x + 0.29310250068700194y_1 - 0.11426215993404765y_2</t>
+  </si>
+  <si>
+    <t>-5.185921956581478</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.6261647232860903</t>
-  </si>
-  <si>
-    <t>0.04844009512150904</t>
+    <t>0.34</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>-0.9999998802233586y_1 + 0.00031861446501277167y_2</t>
-  </si>
-  <si>
-    <t>-1.9715508138718982</t>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>-5.591412109628146 - 0.05181107677306451y_1 + 1.4946028789848305y_2</t>
+  </si>
+  <si>
+    <t>5.591412109628146</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.9520276521867266</t>
-  </si>
-  <si>
-    <t>0.2960389768883026</t>
-  </si>
-  <si>
-    <t>0.0006328987918190257y_1 + 0.683556222428843y_2</t>
-  </si>
-  <si>
-    <t>1.4752986886330182</t>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>-8.5</t>
+  </si>
+  <si>
+    <t>-1.0</t>
+  </si>
+  <si>
+    <t>-2.7820335256938713 + 0.7766144545204726y_1 + 0.22415498763396524y_2</t>
+  </si>
+  <si>
+    <t>2.1720335256938714</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.1729467021495048</t>
-  </si>
-  <si>
-    <t>0.5793396722360381</t>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>2.0</t>
   </si>
   <si>
     <t>x</t>
@@ -123,31 +129,34 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>3.854930883109191</t>
-  </si>
-  <si>
-    <t>1.9722381242334144</t>
-  </si>
-  <si>
-    <t>2.1564436298587824</t>
+    <t>5.25</t>
+  </si>
+  <si>
+    <t>1.7000000000000002</t>
+  </si>
+  <si>
+    <t>3.8</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-1.6462492847451282</t>
-  </si>
-  <si>
-    <t>-1.1182868187898638</t>
+    <t>-2.087514792203131</t>
+  </si>
+  <si>
+    <t>-1.2555741639812068</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-0.020978616928712966</t>
-  </si>
-  <si>
-    <t>-0.15642542663645628</t>
+    <t>-0.0</t>
+  </si>
+  <si>
+    <t>-6.1041122069816005</t>
+  </si>
+  <si>
+    <t>9.693687538147646</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -618,30 +627,30 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -659,24 +668,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -694,17 +703,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -722,22 +731,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -755,17 +764,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.0003186144875265695</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.8475374103490397</v>
+        <v>2.79</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/quadratic/ex9.2.4/Experimentos_Generador/ex9.2.4(Quadratic)__C_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/quadratic/ex9.2.4/Experimentos_Generador/ex9.2.4(Quadratic)__C_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,58 +66,55 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>5.185921956581478 - x + 0.29310250068700194y_1 - 0.11426215993404765y_2</t>
-  </si>
-  <si>
-    <t>-5.185921956581478</t>
-  </si>
-  <si>
-    <t>J_0_L0_v</t>
-  </si>
-  <si>
-    <t>0.34</t>
+    <t>-x + y_1 + y_2</t>
+  </si>
+  <si>
+    <t>5.300000000000001</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>0.8999999999999999</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>-5.591412109628146 - 0.05181107677306451y_1 + 1.4946028789848305y_2</t>
-  </si>
-  <si>
-    <t>5.591412109628146</t>
+    <t>-7.511452156824436 + 1.260515793837y_1 + 0.29743628866276317y_2</t>
+  </si>
+  <si>
+    <t>7.511452156824436</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>-8.5</t>
-  </si>
-  <si>
-    <t>-1.0</t>
-  </si>
-  <si>
-    <t>-2.7820335256938713 + 0.7766144545204726y_1 + 0.22415498763396524y_2</t>
-  </si>
-  <si>
-    <t>2.1720335256938714</t>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>3.3000000000000003</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>-3.992716133424099 + 0.12933968686181074y_1 - 0.9829816201497618y_2</t>
+  </si>
+  <si>
+    <t>-3.992716133424099</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.38</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>2.0</t>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>6.4</t>
   </si>
   <si>
     <t>x</t>
@@ -129,34 +126,31 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>5.25</t>
-  </si>
-  <si>
-    <t>1.7000000000000002</t>
-  </si>
-  <si>
-    <t>3.8</t>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>4.85</t>
+  </si>
+  <si>
+    <t>4.7</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-2.087514792203131</t>
-  </si>
-  <si>
-    <t>-1.2555741639812068</t>
+    <t>-6.779997167513791</t>
+  </si>
+  <si>
+    <t>-1.0347364694097094</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-0.0</t>
-  </si>
-  <si>
-    <t>-6.1041122069816005</t>
-  </si>
-  <si>
-    <t>9.693687538147646</t>
+    <t>-11.01747611557769</t>
+  </si>
+  <si>
+    <t>1.7095426163713574</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -650,7 +644,7 @@
         <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -668,24 +662,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -703,17 +697,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -731,22 +725,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -764,17 +758,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>1.77</v>
+        <v>2.2800000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>2.79</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
   </sheetData>
